--- a/trunk/PhD/docs/Test Audio.xlsx
+++ b/trunk/PhD/docs/Test Audio.xlsx
@@ -17,18 +17,20 @@
     <sheet name="Bryan Whole Tunes" sheetId="3" r:id="rId8"/>
     <sheet name="Bryan Extracts" sheetId="4" r:id="rId9"/>
     <sheet name="Summary" sheetId="10" r:id="rId10"/>
-    <sheet name="T1 &amp; T3" sheetId="11" r:id="rId11"/>
-    <sheet name="T2 &amp; T3" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet5" sheetId="14" r:id="rId13"/>
-    <sheet name="Appendix G" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId15"/>
+    <sheet name="T1 &amp; T2" sheetId="18" r:id="rId11"/>
+    <sheet name="T1 &amp; T3" sheetId="11" r:id="rId12"/>
+    <sheet name="T2 &amp; T3" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId14"/>
+    <sheet name="Appendix F" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="1021">
   <si>
     <t>Ambrose Maloneys</t>
   </si>
@@ -2914,9 +2916,6 @@
   </si>
   <si>
     <t>X2</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Average Distances</t>
@@ -3095,6 +3094,57 @@
   </si>
   <si>
     <t>Corpus</t>
+  </si>
+  <si>
+    <t>Cotter</t>
+  </si>
+  <si>
+    <t>McEvoy</t>
+  </si>
+  <si>
+    <t>Repetitions</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Breaths</t>
+  </si>
+  <si>
+    <t>Normalised breaths</t>
+  </si>
+  <si>
+    <t>Rolls</t>
+  </si>
+  <si>
+    <t>Normalised rolls</t>
+  </si>
+  <si>
+    <t>Triplets</t>
+  </si>
+  <si>
+    <t>Normalised triplets</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Normalised trill/cuts</t>
+  </si>
+  <si>
+    <t>Trills</t>
+  </si>
+  <si>
+    <t>Normalised trills</t>
+  </si>
+  <si>
+    <t>Cuts</t>
+  </si>
+  <si>
+    <t>Normalised cuts</t>
+  </si>
+  <si>
+    <t>T1 &amp; T2</t>
   </si>
 </sst>
 </file>
@@ -3350,9 +3400,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -3361,8 +3409,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -3373,7 +3425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3437,7 +3489,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3450,6 +3501,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -3465,6 +3519,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3981,24 +4036,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65136896"/>
-        <c:axId val="64757760"/>
+        <c:axId val="58433536"/>
+        <c:axId val="58435072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65136896"/>
+        <c:axId val="58433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64757760"/>
+        <c:crossAx val="58435072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64757760"/>
+        <c:axId val="58435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,19 +4061,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65136896"/>
+        <c:crossAx val="58433536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5249,7 +5305,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5259,18 +5315,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>941</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
         <v>942</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1">
       <c r="A2" s="4"/>
@@ -5524,6 +5580,9 @@
         <f>F4+G4</f>
         <v>7</v>
       </c>
+      <c r="E13" t="s">
+        <v>1020</v>
+      </c>
       <c r="H13" t="s">
         <v>954</v>
       </c>
@@ -5531,7 +5590,7 @@
         <v>955</v>
       </c>
       <c r="N13" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1">
@@ -5550,6 +5609,14 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
+      <c r="E14" s="13">
+        <f>'T1 &amp; T2'!B101</f>
+        <v>53</v>
+      </c>
+      <c r="F14" s="13">
+        <f>'T1 &amp; T2'!C101</f>
+        <v>36</v>
+      </c>
       <c r="H14" s="13">
         <f>'T1 &amp; T3'!B101</f>
         <v>7</v>
@@ -5567,10 +5634,10 @@
         <v>46</v>
       </c>
       <c r="N14" s="13">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="O14" s="13">
-        <v>2</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1">
@@ -5589,6 +5656,14 @@
         <f>D12/D14</f>
         <v>0.93</v>
       </c>
+      <c r="E15" s="13">
+        <f>'T1 &amp; T2'!D101</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <f>'T1 &amp; T2'!E101</f>
+        <v>11</v>
+      </c>
       <c r="H15" s="13">
         <f>'T1 &amp; T3'!D101</f>
         <v>0</v>
@@ -5606,10 +5681,10 @@
         <v>47</v>
       </c>
       <c r="N15" s="13">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="O15" s="13">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1">
@@ -5645,26 +5720,33 @@
         <f>D15+D16</f>
         <v>1</v>
       </c>
+      <c r="E17" t="s">
+        <v>961</v>
+      </c>
+      <c r="F17">
+        <f>(POWER(((ABS(F14 - E15)) -1), 2)) / (F14 - E15)</f>
+        <v>34.027777777777779</v>
+      </c>
       <c r="H17" t="s">
         <v>961</v>
       </c>
       <c r="I17">
-        <f>(POWER(((I14 + H15) -1), 2)) / (I14 - H15)</f>
+        <f>(POWER(((ABS(I14 - H15)) -1), 2)) / (I14 - H15)</f>
         <v>80.012195121951223</v>
       </c>
       <c r="K17" t="s">
         <v>961</v>
       </c>
       <c r="L17">
-        <f>(POWER(((L14 + K15) -1), 2)) / (L14 - K15)</f>
+        <f>(POWER(((ABS(L14 - K15)) -1), 2)) / (L14 - K15)</f>
         <v>44.021739130434781</v>
       </c>
       <c r="N17" t="s">
         <v>961</v>
       </c>
-      <c r="O17" t="e">
-        <f>(POWER(((O14 + N15) -1), 2)) / (O14 - N15)</f>
-        <v>#DIV/0!</v>
+      <c r="O17">
+        <f>(POWER(((ABS(O14 - N15)) -1), 2)) / (O14 - N15)</f>
+        <v>13.066666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -5680,7 +5762,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="P19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R19">
         <f>AVERAGE('Parsons Whole Tunes'!E1:E50)</f>
@@ -5725,8 +5807,1862 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A76" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B1=0,TRUE,FALSE),IF('Semex Whole Tunes'!B1=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B1=0,TRUE,FALSE),IF('Semex Whole Tunes'!B1=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B1=1,TRUE,FALSE),IF('Semex Whole Tunes'!B1=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B1=1,TRUE,FALSE),IF('Semex Whole Tunes'!B1=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B2=0,TRUE,FALSE),IF('Semex Whole Tunes'!B2=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B2=0,TRUE,FALSE),IF('Semex Whole Tunes'!B2=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B2=1,TRUE,FALSE),IF('Semex Whole Tunes'!B2=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B2=1,TRUE,FALSE),IF('Semex Whole Tunes'!B2=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B3=0,TRUE,FALSE),IF('Semex Whole Tunes'!B3=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B3=0,TRUE,FALSE),IF('Semex Whole Tunes'!B3=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B3=1,TRUE,FALSE),IF('Semex Whole Tunes'!B3=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B3=1,TRUE,FALSE),IF('Semex Whole Tunes'!B3=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B4=0,TRUE,FALSE),IF('Semex Whole Tunes'!B4=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B4=0,TRUE,FALSE),IF('Semex Whole Tunes'!B4=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B4=1,TRUE,FALSE),IF('Semex Whole Tunes'!B4=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B4=1,TRUE,FALSE),IF('Semex Whole Tunes'!B4=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B5=0,TRUE,FALSE),IF('Semex Whole Tunes'!B5=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B5=0,TRUE,FALSE),IF('Semex Whole Tunes'!B5=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B5=1,TRUE,FALSE),IF('Semex Whole Tunes'!B5=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B5=1,TRUE,FALSE),IF('Semex Whole Tunes'!B5=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B6=0,TRUE,FALSE),IF('Semex Whole Tunes'!B6=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B6=0,TRUE,FALSE),IF('Semex Whole Tunes'!B6=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B6=1,TRUE,FALSE),IF('Semex Whole Tunes'!B6=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B6=1,TRUE,FALSE),IF('Semex Whole Tunes'!B6=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B7=0,TRUE,FALSE),IF('Semex Whole Tunes'!B7=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B7=0,TRUE,FALSE),IF('Semex Whole Tunes'!B7=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B7=1,TRUE,FALSE),IF('Semex Whole Tunes'!B7=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B7=1,TRUE,FALSE),IF('Semex Whole Tunes'!B7=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B8=0,TRUE,FALSE),IF('Semex Whole Tunes'!B8=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B8=0,TRUE,FALSE),IF('Semex Whole Tunes'!B8=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B8=1,TRUE,FALSE),IF('Semex Whole Tunes'!B8=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B8=1,TRUE,FALSE),IF('Semex Whole Tunes'!B8=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B9=0,TRUE,FALSE),IF('Semex Whole Tunes'!B9=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B9=0,TRUE,FALSE),IF('Semex Whole Tunes'!B9=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B9=1,TRUE,FALSE),IF('Semex Whole Tunes'!B9=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B9=1,TRUE,FALSE),IF('Semex Whole Tunes'!B9=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B10=0,TRUE,FALSE),IF('Semex Whole Tunes'!B10=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B10=0,TRUE,FALSE),IF('Semex Whole Tunes'!B10=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B10=1,TRUE,FALSE),IF('Semex Whole Tunes'!B10=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B10=1,TRUE,FALSE),IF('Semex Whole Tunes'!B10=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B11=0,TRUE,FALSE),IF('Semex Whole Tunes'!B11=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B11=0,TRUE,FALSE),IF('Semex Whole Tunes'!B11=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B11=1,TRUE,FALSE),IF('Semex Whole Tunes'!B11=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B11=1,TRUE,FALSE),IF('Semex Whole Tunes'!B11=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B12=0,TRUE,FALSE),IF('Semex Whole Tunes'!B12=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B12=0,TRUE,FALSE),IF('Semex Whole Tunes'!B12=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B12=1,TRUE,FALSE),IF('Semex Whole Tunes'!B12=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B12=1,TRUE,FALSE),IF('Semex Whole Tunes'!B12=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B13=0,TRUE,FALSE),IF('Semex Whole Tunes'!B13=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B13=0,TRUE,FALSE),IF('Semex Whole Tunes'!B13=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B13=1,TRUE,FALSE),IF('Semex Whole Tunes'!B13=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B13=1,TRUE,FALSE),IF('Semex Whole Tunes'!B13=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B14=0,TRUE,FALSE),IF('Semex Whole Tunes'!B14=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B14=0,TRUE,FALSE),IF('Semex Whole Tunes'!B14=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B14=1,TRUE,FALSE),IF('Semex Whole Tunes'!B14=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B14=1,TRUE,FALSE),IF('Semex Whole Tunes'!B14=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B15=0,TRUE,FALSE),IF('Semex Whole Tunes'!B15=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B15=0,TRUE,FALSE),IF('Semex Whole Tunes'!B15=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B15=1,TRUE,FALSE),IF('Semex Whole Tunes'!B15=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B15=1,TRUE,FALSE),IF('Semex Whole Tunes'!B15=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B16=0,TRUE,FALSE),IF('Semex Whole Tunes'!B16=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B16=0,TRUE,FALSE),IF('Semex Whole Tunes'!B16=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B16=1,TRUE,FALSE),IF('Semex Whole Tunes'!B16=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B16=1,TRUE,FALSE),IF('Semex Whole Tunes'!B16=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B17=0,TRUE,FALSE),IF('Semex Whole Tunes'!B17=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B17=0,TRUE,FALSE),IF('Semex Whole Tunes'!B17=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B17=1,TRUE,FALSE),IF('Semex Whole Tunes'!B17=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B17=1,TRUE,FALSE),IF('Semex Whole Tunes'!B17=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B18=0,TRUE,FALSE),IF('Semex Whole Tunes'!B18=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B18=0,TRUE,FALSE),IF('Semex Whole Tunes'!B18=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B18=1,TRUE,FALSE),IF('Semex Whole Tunes'!B18=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B18=1,TRUE,FALSE),IF('Semex Whole Tunes'!B18=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B19=0,TRUE,FALSE),IF('Semex Whole Tunes'!B19=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B19=0,TRUE,FALSE),IF('Semex Whole Tunes'!B19=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B19=1,TRUE,FALSE),IF('Semex Whole Tunes'!B19=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B19=1,TRUE,FALSE),IF('Semex Whole Tunes'!B19=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B20=0,TRUE,FALSE),IF('Semex Whole Tunes'!B20=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B20=0,TRUE,FALSE),IF('Semex Whole Tunes'!B20=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B20=1,TRUE,FALSE),IF('Semex Whole Tunes'!B20=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B20=1,TRUE,FALSE),IF('Semex Whole Tunes'!B20=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B21=0,TRUE,FALSE),IF('Semex Whole Tunes'!B21=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B21=0,TRUE,FALSE),IF('Semex Whole Tunes'!B21=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B21=1,TRUE,FALSE),IF('Semex Whole Tunes'!B21=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B21=1,TRUE,FALSE),IF('Semex Whole Tunes'!B21=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B22=0,TRUE,FALSE),IF('Semex Whole Tunes'!B22=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B22=0,TRUE,FALSE),IF('Semex Whole Tunes'!B22=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B22=1,TRUE,FALSE),IF('Semex Whole Tunes'!B22=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B22=1,TRUE,FALSE),IF('Semex Whole Tunes'!B22=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B23=0,TRUE,FALSE),IF('Semex Whole Tunes'!B23=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B23=0,TRUE,FALSE),IF('Semex Whole Tunes'!B23=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B23=1,TRUE,FALSE),IF('Semex Whole Tunes'!B23=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B23=1,TRUE,FALSE),IF('Semex Whole Tunes'!B23=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B24=0,TRUE,FALSE),IF('Semex Whole Tunes'!B24=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B24=0,TRUE,FALSE),IF('Semex Whole Tunes'!B24=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B24=1,TRUE,FALSE),IF('Semex Whole Tunes'!B24=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B24=1,TRUE,FALSE),IF('Semex Whole Tunes'!B24=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B25=0,TRUE,FALSE),IF('Semex Whole Tunes'!B25=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B25=0,TRUE,FALSE),IF('Semex Whole Tunes'!B25=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B25=1,TRUE,FALSE),IF('Semex Whole Tunes'!B25=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B25=1,TRUE,FALSE),IF('Semex Whole Tunes'!B25=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B26=0,TRUE,FALSE),IF('Semex Whole Tunes'!B26=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B26=0,TRUE,FALSE),IF('Semex Whole Tunes'!B26=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B26=1,TRUE,FALSE),IF('Semex Whole Tunes'!B26=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B26=1,TRUE,FALSE),IF('Semex Whole Tunes'!B26=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B27=0,TRUE,FALSE),IF('Semex Whole Tunes'!B27=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B27=0,TRUE,FALSE),IF('Semex Whole Tunes'!B27=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B27=1,TRUE,FALSE),IF('Semex Whole Tunes'!B27=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B27=1,TRUE,FALSE),IF('Semex Whole Tunes'!B27=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B28=0,TRUE,FALSE),IF('Semex Whole Tunes'!B28=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B28=0,TRUE,FALSE),IF('Semex Whole Tunes'!B28=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B28=1,TRUE,FALSE),IF('Semex Whole Tunes'!B28=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B28=1,TRUE,FALSE),IF('Semex Whole Tunes'!B28=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B29=0,TRUE,FALSE),IF('Semex Whole Tunes'!B29=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B29=0,TRUE,FALSE),IF('Semex Whole Tunes'!B29=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B29=1,TRUE,FALSE),IF('Semex Whole Tunes'!B29=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B29=1,TRUE,FALSE),IF('Semex Whole Tunes'!B29=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B30=0,TRUE,FALSE),IF('Semex Whole Tunes'!B30=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B30=0,TRUE,FALSE),IF('Semex Whole Tunes'!B30=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B30=1,TRUE,FALSE),IF('Semex Whole Tunes'!B30=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B30=1,TRUE,FALSE),IF('Semex Whole Tunes'!B30=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B31=0,TRUE,FALSE),IF('Semex Whole Tunes'!B31=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B31=0,TRUE,FALSE),IF('Semex Whole Tunes'!B31=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B31=1,TRUE,FALSE),IF('Semex Whole Tunes'!B31=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B31=1,TRUE,FALSE),IF('Semex Whole Tunes'!B31=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B32=0,TRUE,FALSE),IF('Semex Whole Tunes'!B32=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B32=0,TRUE,FALSE),IF('Semex Whole Tunes'!B32=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B32=1,TRUE,FALSE),IF('Semex Whole Tunes'!B32=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B32=1,TRUE,FALSE),IF('Semex Whole Tunes'!B32=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B33=0,TRUE,FALSE),IF('Semex Whole Tunes'!B33=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B33=0,TRUE,FALSE),IF('Semex Whole Tunes'!B33=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B33=1,TRUE,FALSE),IF('Semex Whole Tunes'!B33=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B33=1,TRUE,FALSE),IF('Semex Whole Tunes'!B33=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B34=0,TRUE,FALSE),IF('Semex Whole Tunes'!B34=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B34=0,TRUE,FALSE),IF('Semex Whole Tunes'!B34=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B34=1,TRUE,FALSE),IF('Semex Whole Tunes'!B34=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B34=1,TRUE,FALSE),IF('Semex Whole Tunes'!B34=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B35=0,TRUE,FALSE),IF('Semex Whole Tunes'!B35=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B35=0,TRUE,FALSE),IF('Semex Whole Tunes'!B35=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B35=1,TRUE,FALSE),IF('Semex Whole Tunes'!B35=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B35=1,TRUE,FALSE),IF('Semex Whole Tunes'!B35=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B36=0,TRUE,FALSE),IF('Semex Whole Tunes'!B36=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B36=0,TRUE,FALSE),IF('Semex Whole Tunes'!B36=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B36=1,TRUE,FALSE),IF('Semex Whole Tunes'!B36=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B36=1,TRUE,FALSE),IF('Semex Whole Tunes'!B36=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B37=0,TRUE,FALSE),IF('Semex Whole Tunes'!B37=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B37=0,TRUE,FALSE),IF('Semex Whole Tunes'!B37=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B37=1,TRUE,FALSE),IF('Semex Whole Tunes'!B37=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B37=1,TRUE,FALSE),IF('Semex Whole Tunes'!B37=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B38=0,TRUE,FALSE),IF('Semex Whole Tunes'!B38=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B38=0,TRUE,FALSE),IF('Semex Whole Tunes'!B38=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B38=1,TRUE,FALSE),IF('Semex Whole Tunes'!B38=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B38=1,TRUE,FALSE),IF('Semex Whole Tunes'!B38=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B39=0,TRUE,FALSE),IF('Semex Whole Tunes'!B39=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B39=0,TRUE,FALSE),IF('Semex Whole Tunes'!B39=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B39=1,TRUE,FALSE),IF('Semex Whole Tunes'!B39=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B39=1,TRUE,FALSE),IF('Semex Whole Tunes'!B39=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B40=0,TRUE,FALSE),IF('Semex Whole Tunes'!B40=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B40=0,TRUE,FALSE),IF('Semex Whole Tunes'!B40=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B40=1,TRUE,FALSE),IF('Semex Whole Tunes'!B40=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B40=1,TRUE,FALSE),IF('Semex Whole Tunes'!B40=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B41=0,TRUE,FALSE),IF('Semex Whole Tunes'!B41=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B41=0,TRUE,FALSE),IF('Semex Whole Tunes'!B41=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B41=1,TRUE,FALSE),IF('Semex Whole Tunes'!B41=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B41=1,TRUE,FALSE),IF('Semex Whole Tunes'!B41=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B42=0,TRUE,FALSE),IF('Semex Whole Tunes'!B42=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B42=0,TRUE,FALSE),IF('Semex Whole Tunes'!B42=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B42=1,TRUE,FALSE),IF('Semex Whole Tunes'!B42=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B42=1,TRUE,FALSE),IF('Semex Whole Tunes'!B42=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B43=0,TRUE,FALSE),IF('Semex Whole Tunes'!B43=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B43=0,TRUE,FALSE),IF('Semex Whole Tunes'!B43=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B43=1,TRUE,FALSE),IF('Semex Whole Tunes'!B43=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B43=1,TRUE,FALSE),IF('Semex Whole Tunes'!B43=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B44=0,TRUE,FALSE),IF('Semex Whole Tunes'!B44=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B44=0,TRUE,FALSE),IF('Semex Whole Tunes'!B44=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B44=1,TRUE,FALSE),IF('Semex Whole Tunes'!B44=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B44=1,TRUE,FALSE),IF('Semex Whole Tunes'!B44=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B45=0,TRUE,FALSE),IF('Semex Whole Tunes'!B45=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B45=0,TRUE,FALSE),IF('Semex Whole Tunes'!B45=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B45=1,TRUE,FALSE),IF('Semex Whole Tunes'!B45=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B45=1,TRUE,FALSE),IF('Semex Whole Tunes'!B45=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B46=0,TRUE,FALSE),IF('Semex Whole Tunes'!B46=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B46=0,TRUE,FALSE),IF('Semex Whole Tunes'!B46=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B46=1,TRUE,FALSE),IF('Semex Whole Tunes'!B46=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B46=1,TRUE,FALSE),IF('Semex Whole Tunes'!B46=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B47=0,TRUE,FALSE),IF('Semex Whole Tunes'!B47=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B47=0,TRUE,FALSE),IF('Semex Whole Tunes'!B47=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B47=1,TRUE,FALSE),IF('Semex Whole Tunes'!B47=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B47=1,TRUE,FALSE),IF('Semex Whole Tunes'!B47=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B48=0,TRUE,FALSE),IF('Semex Whole Tunes'!B48=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B48=0,TRUE,FALSE),IF('Semex Whole Tunes'!B48=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B48=1,TRUE,FALSE),IF('Semex Whole Tunes'!B48=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B48=1,TRUE,FALSE),IF('Semex Whole Tunes'!B48=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B49=0,TRUE,FALSE),IF('Semex Whole Tunes'!B49=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B49=0,TRUE,FALSE),IF('Semex Whole Tunes'!B49=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B49=1,TRUE,FALSE),IF('Semex Whole Tunes'!B49=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B49=1,TRUE,FALSE),IF('Semex Whole Tunes'!B49=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B50=0,TRUE,FALSE),IF('Semex Whole Tunes'!B50=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B50=0,TRUE,FALSE),IF('Semex Whole Tunes'!B50=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B50=1,TRUE,FALSE),IF('Semex Whole Tunes'!B50=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>IF(AND(IF('Parsons Whole Tunes'!B50=1,TRUE,FALSE),IF('Semex Whole Tunes'!B50=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51">
+        <f>IF(AND(IF('Parsons Extracts'!B1=0,TRUE,FALSE),IF('Semex Extracts'!B1 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f>IF(AND(IF('Parsons Extracts'!B1=0,TRUE,FALSE),IF('Semex Extracts'!B1 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>IF(AND(IF('Parsons Extracts'!B1=1,TRUE,FALSE),IF('Semex Extracts'!B1 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>IF(AND(IF('Parsons Extracts'!B1=1,TRUE,FALSE),IF('Semex Extracts'!B1 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <f>IF(AND(IF('Parsons Extracts'!B2=0,TRUE,FALSE),IF('Semex Extracts'!B2 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>IF(AND(IF('Parsons Extracts'!B2=0,TRUE,FALSE),IF('Semex Extracts'!B2 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f>IF(AND(IF('Parsons Extracts'!B2=1,TRUE,FALSE),IF('Semex Extracts'!B2 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>IF(AND(IF('Parsons Extracts'!B2=1,TRUE,FALSE),IF('Semex Extracts'!B2 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <f>IF(AND(IF('Parsons Extracts'!B3=0,TRUE,FALSE),IF('Semex Extracts'!B3 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>IF(AND(IF('Parsons Extracts'!B3=0,TRUE,FALSE),IF('Semex Extracts'!B3 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>IF(AND(IF('Parsons Extracts'!B3=1,TRUE,FALSE),IF('Semex Extracts'!B3 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>IF(AND(IF('Parsons Extracts'!B3=1,TRUE,FALSE),IF('Semex Extracts'!B3 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54">
+        <f>IF(AND(IF('Parsons Extracts'!B4=0,TRUE,FALSE),IF('Semex Extracts'!B4 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f>IF(AND(IF('Parsons Extracts'!B4=0,TRUE,FALSE),IF('Semex Extracts'!B4 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>IF(AND(IF('Parsons Extracts'!B4=1,TRUE,FALSE),IF('Semex Extracts'!B4 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>IF(AND(IF('Parsons Extracts'!B4=1,TRUE,FALSE),IF('Semex Extracts'!B4 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <f>IF(AND(IF('Parsons Extracts'!B5=0,TRUE,FALSE),IF('Semex Extracts'!B5 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <f>IF(AND(IF('Parsons Extracts'!B5=0,TRUE,FALSE),IF('Semex Extracts'!B5 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>IF(AND(IF('Parsons Extracts'!B5=1,TRUE,FALSE),IF('Semex Extracts'!B5 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>IF(AND(IF('Parsons Extracts'!B5=1,TRUE,FALSE),IF('Semex Extracts'!B5 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <f>IF(AND(IF('Parsons Extracts'!B6=0,TRUE,FALSE),IF('Semex Extracts'!B6 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <f>IF(AND(IF('Parsons Extracts'!B6=0,TRUE,FALSE),IF('Semex Extracts'!B6 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>IF(AND(IF('Parsons Extracts'!B6=1,TRUE,FALSE),IF('Semex Extracts'!B6 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>IF(AND(IF('Parsons Extracts'!B6=1,TRUE,FALSE),IF('Semex Extracts'!B6 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <f>IF(AND(IF('Parsons Extracts'!B7=0,TRUE,FALSE),IF('Semex Extracts'!B7 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f>IF(AND(IF('Parsons Extracts'!B7=0,TRUE,FALSE),IF('Semex Extracts'!B7 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>IF(AND(IF('Parsons Extracts'!B7=1,TRUE,FALSE),IF('Semex Extracts'!B7 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>IF(AND(IF('Parsons Extracts'!B7=1,TRUE,FALSE),IF('Semex Extracts'!B7 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58">
+        <f>IF(AND(IF('Parsons Extracts'!B8=0,TRUE,FALSE),IF('Semex Extracts'!B8 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f>IF(AND(IF('Parsons Extracts'!B8=0,TRUE,FALSE),IF('Semex Extracts'!B8 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>IF(AND(IF('Parsons Extracts'!B8=1,TRUE,FALSE),IF('Semex Extracts'!B8 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>IF(AND(IF('Parsons Extracts'!B8=1,TRUE,FALSE),IF('Semex Extracts'!B8 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <f>IF(AND(IF('Parsons Extracts'!B9=0,TRUE,FALSE),IF('Semex Extracts'!B9 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f>IF(AND(IF('Parsons Extracts'!B9=0,TRUE,FALSE),IF('Semex Extracts'!B9 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>IF(AND(IF('Parsons Extracts'!B9=1,TRUE,FALSE),IF('Semex Extracts'!B9 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>IF(AND(IF('Parsons Extracts'!B9=1,TRUE,FALSE),IF('Semex Extracts'!B9 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
+        <f>IF(AND(IF('Parsons Extracts'!B10=0,TRUE,FALSE),IF('Semex Extracts'!B10 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f>IF(AND(IF('Parsons Extracts'!B10=0,TRUE,FALSE),IF('Semex Extracts'!B10 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>IF(AND(IF('Parsons Extracts'!B10=1,TRUE,FALSE),IF('Semex Extracts'!B10 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>IF(AND(IF('Parsons Extracts'!B10=1,TRUE,FALSE),IF('Semex Extracts'!B10 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <f>IF(AND(IF('Parsons Extracts'!B11=0,TRUE,FALSE),IF('Semex Extracts'!B11 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f>IF(AND(IF('Parsons Extracts'!B11=0,TRUE,FALSE),IF('Semex Extracts'!B11 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>IF(AND(IF('Parsons Extracts'!B11=1,TRUE,FALSE),IF('Semex Extracts'!B11 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>IF(AND(IF('Parsons Extracts'!B11=1,TRUE,FALSE),IF('Semex Extracts'!B11 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <f>IF(AND(IF('Parsons Extracts'!B12=0,TRUE,FALSE),IF('Semex Extracts'!B12 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>IF(AND(IF('Parsons Extracts'!B12=0,TRUE,FALSE),IF('Semex Extracts'!B12 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f>IF(AND(IF('Parsons Extracts'!B12=1,TRUE,FALSE),IF('Semex Extracts'!B12 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>IF(AND(IF('Parsons Extracts'!B12=1,TRUE,FALSE),IF('Semex Extracts'!B12 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <f>IF(AND(IF('Parsons Extracts'!B13=0,TRUE,FALSE),IF('Semex Extracts'!B13 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f>IF(AND(IF('Parsons Extracts'!B13=0,TRUE,FALSE),IF('Semex Extracts'!B13 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>IF(AND(IF('Parsons Extracts'!B13=1,TRUE,FALSE),IF('Semex Extracts'!B13 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>IF(AND(IF('Parsons Extracts'!B13=1,TRUE,FALSE),IF('Semex Extracts'!B13 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <f>IF(AND(IF('Parsons Extracts'!B14=0,TRUE,FALSE),IF('Semex Extracts'!B14 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f>IF(AND(IF('Parsons Extracts'!B14=0,TRUE,FALSE),IF('Semex Extracts'!B14 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f>IF(AND(IF('Parsons Extracts'!B14=1,TRUE,FALSE),IF('Semex Extracts'!B14 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>IF(AND(IF('Parsons Extracts'!B14=1,TRUE,FALSE),IF('Semex Extracts'!B14 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65">
+        <f>IF(AND(IF('Parsons Extracts'!B15=0,TRUE,FALSE),IF('Semex Extracts'!B15 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f>IF(AND(IF('Parsons Extracts'!B15=0,TRUE,FALSE),IF('Semex Extracts'!B15 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f>IF(AND(IF('Parsons Extracts'!B15=1,TRUE,FALSE),IF('Semex Extracts'!B15 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>IF(AND(IF('Parsons Extracts'!B15=1,TRUE,FALSE),IF('Semex Extracts'!B15 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <f>IF(AND(IF('Parsons Extracts'!B16=0,TRUE,FALSE),IF('Semex Extracts'!B16 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f>IF(AND(IF('Parsons Extracts'!B16=0,TRUE,FALSE),IF('Semex Extracts'!B16 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>IF(AND(IF('Parsons Extracts'!B16=1,TRUE,FALSE),IF('Semex Extracts'!B16 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>IF(AND(IF('Parsons Extracts'!B16=1,TRUE,FALSE),IF('Semex Extracts'!B16 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67">
+        <f>IF(AND(IF('Parsons Extracts'!B17=0,TRUE,FALSE),IF('Semex Extracts'!B17 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f>IF(AND(IF('Parsons Extracts'!B17=0,TRUE,FALSE),IF('Semex Extracts'!B17 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f>IF(AND(IF('Parsons Extracts'!B17=1,TRUE,FALSE),IF('Semex Extracts'!B17 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>IF(AND(IF('Parsons Extracts'!B17=1,TRUE,FALSE),IF('Semex Extracts'!B17 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68">
+        <f>IF(AND(IF('Parsons Extracts'!B18=0,TRUE,FALSE),IF('Semex Extracts'!B18 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>IF(AND(IF('Parsons Extracts'!B18=0,TRUE,FALSE),IF('Semex Extracts'!B18 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <f>IF(AND(IF('Parsons Extracts'!B18=1,TRUE,FALSE),IF('Semex Extracts'!B18 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>IF(AND(IF('Parsons Extracts'!B18=1,TRUE,FALSE),IF('Semex Extracts'!B18 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <f>IF(AND(IF('Parsons Extracts'!B19=0,TRUE,FALSE),IF('Semex Extracts'!B19 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>IF(AND(IF('Parsons Extracts'!B19=0,TRUE,FALSE),IF('Semex Extracts'!B19 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f>IF(AND(IF('Parsons Extracts'!B19=1,TRUE,FALSE),IF('Semex Extracts'!B19 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>IF(AND(IF('Parsons Extracts'!B19=1,TRUE,FALSE),IF('Semex Extracts'!B19 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70">
+        <f>IF(AND(IF('Parsons Extracts'!B20=0,TRUE,FALSE),IF('Semex Extracts'!B20 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>IF(AND(IF('Parsons Extracts'!B20=0,TRUE,FALSE),IF('Semex Extracts'!B20 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f>IF(AND(IF('Parsons Extracts'!B20=1,TRUE,FALSE),IF('Semex Extracts'!B20 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>IF(AND(IF('Parsons Extracts'!B20=1,TRUE,FALSE),IF('Semex Extracts'!B20 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
+        <f>IF(AND(IF('Parsons Extracts'!B21=0,TRUE,FALSE),IF('Semex Extracts'!B21 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>IF(AND(IF('Parsons Extracts'!B21=0,TRUE,FALSE),IF('Semex Extracts'!B21 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f>IF(AND(IF('Parsons Extracts'!B21=1,TRUE,FALSE),IF('Semex Extracts'!B21 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>IF(AND(IF('Parsons Extracts'!B21=1,TRUE,FALSE),IF('Semex Extracts'!B21 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72">
+        <f>IF(AND(IF('Parsons Extracts'!B22=0,TRUE,FALSE),IF('Semex Extracts'!B22 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f>IF(AND(IF('Parsons Extracts'!B22=0,TRUE,FALSE),IF('Semex Extracts'!B22 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>IF(AND(IF('Parsons Extracts'!B22=1,TRUE,FALSE),IF('Semex Extracts'!B22 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>IF(AND(IF('Parsons Extracts'!B22=1,TRUE,FALSE),IF('Semex Extracts'!B22 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73">
+        <f>IF(AND(IF('Parsons Extracts'!B23=0,TRUE,FALSE),IF('Semex Extracts'!B23 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <f>IF(AND(IF('Parsons Extracts'!B23=0,TRUE,FALSE),IF('Semex Extracts'!B23 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f>IF(AND(IF('Parsons Extracts'!B23=1,TRUE,FALSE),IF('Semex Extracts'!B23 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>IF(AND(IF('Parsons Extracts'!B23=1,TRUE,FALSE),IF('Semex Extracts'!B23 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74">
+        <f>IF(AND(IF('Parsons Extracts'!B24=0,TRUE,FALSE),IF('Semex Extracts'!B24 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>IF(AND(IF('Parsons Extracts'!B24=0,TRUE,FALSE),IF('Semex Extracts'!B24 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <f>IF(AND(IF('Parsons Extracts'!B24=1,TRUE,FALSE),IF('Semex Extracts'!B24 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>IF(AND(IF('Parsons Extracts'!B24=1,TRUE,FALSE),IF('Semex Extracts'!B24 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75">
+        <f>IF(AND(IF('Parsons Extracts'!B25=0,TRUE,FALSE),IF('Semex Extracts'!B25 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>IF(AND(IF('Parsons Extracts'!B25=0,TRUE,FALSE),IF('Semex Extracts'!B25 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <f>IF(AND(IF('Parsons Extracts'!B25=1,TRUE,FALSE),IF('Semex Extracts'!B25 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>IF(AND(IF('Parsons Extracts'!B25=1,TRUE,FALSE),IF('Semex Extracts'!B25 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76">
+        <f>IF(AND(IF('Parsons Extracts'!B26=0,TRUE,FALSE),IF('Semex Extracts'!B26 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <f>IF(AND(IF('Parsons Extracts'!B26=0,TRUE,FALSE),IF('Semex Extracts'!B26 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>IF(AND(IF('Parsons Extracts'!B26=1,TRUE,FALSE),IF('Semex Extracts'!B26 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>IF(AND(IF('Parsons Extracts'!B26=1,TRUE,FALSE),IF('Semex Extracts'!B26 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <f>IF(AND(IF('Parsons Extracts'!B27=0,TRUE,FALSE),IF('Semex Extracts'!B27 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>IF(AND(IF('Parsons Extracts'!B27=0,TRUE,FALSE),IF('Semex Extracts'!B27 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f>IF(AND(IF('Parsons Extracts'!B27=1,TRUE,FALSE),IF('Semex Extracts'!B27 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>IF(AND(IF('Parsons Extracts'!B27=1,TRUE,FALSE),IF('Semex Extracts'!B27 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <f>IF(AND(IF('Parsons Extracts'!B28=0,TRUE,FALSE),IF('Semex Extracts'!B28 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <f>IF(AND(IF('Parsons Extracts'!B28=0,TRUE,FALSE),IF('Semex Extracts'!B28 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f>IF(AND(IF('Parsons Extracts'!B28=1,TRUE,FALSE),IF('Semex Extracts'!B28 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>IF(AND(IF('Parsons Extracts'!B28=1,TRUE,FALSE),IF('Semex Extracts'!B28 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79">
+        <f>IF(AND(IF('Parsons Extracts'!B29=0,TRUE,FALSE),IF('Semex Extracts'!B29 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>IF(AND(IF('Parsons Extracts'!B29=0,TRUE,FALSE),IF('Semex Extracts'!B29 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f>IF(AND(IF('Parsons Extracts'!B29=1,TRUE,FALSE),IF('Semex Extracts'!B29 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>IF(AND(IF('Parsons Extracts'!B29=1,TRUE,FALSE),IF('Semex Extracts'!B29 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80">
+        <f>IF(AND(IF('Parsons Extracts'!B30=0,TRUE,FALSE),IF('Semex Extracts'!B30 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>IF(AND(IF('Parsons Extracts'!B30=0,TRUE,FALSE),IF('Semex Extracts'!B30 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f>IF(AND(IF('Parsons Extracts'!B30=1,TRUE,FALSE),IF('Semex Extracts'!B30 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f>IF(AND(IF('Parsons Extracts'!B30=1,TRUE,FALSE),IF('Semex Extracts'!B30 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81">
+        <f>IF(AND(IF('Parsons Extracts'!B31=0,TRUE,FALSE),IF('Semex Extracts'!B31 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <f>IF(AND(IF('Parsons Extracts'!B31=0,TRUE,FALSE),IF('Semex Extracts'!B31 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>IF(AND(IF('Parsons Extracts'!B31=1,TRUE,FALSE),IF('Semex Extracts'!B31 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>IF(AND(IF('Parsons Extracts'!B31=1,TRUE,FALSE),IF('Semex Extracts'!B31 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82">
+        <f>IF(AND(IF('Parsons Extracts'!B32=0,TRUE,FALSE),IF('Semex Extracts'!B32 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <f>IF(AND(IF('Parsons Extracts'!B32=0,TRUE,FALSE),IF('Semex Extracts'!B32 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>IF(AND(IF('Parsons Extracts'!B32=1,TRUE,FALSE),IF('Semex Extracts'!B32 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>IF(AND(IF('Parsons Extracts'!B32=1,TRUE,FALSE),IF('Semex Extracts'!B32 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <f>IF(AND(IF('Parsons Extracts'!B33=0,TRUE,FALSE),IF('Semex Extracts'!B33 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f>IF(AND(IF('Parsons Extracts'!B33=0,TRUE,FALSE),IF('Semex Extracts'!B33 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f>IF(AND(IF('Parsons Extracts'!B33=1,TRUE,FALSE),IF('Semex Extracts'!B33 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f>IF(AND(IF('Parsons Extracts'!B33=1,TRUE,FALSE),IF('Semex Extracts'!B33 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <f>IF(AND(IF('Parsons Extracts'!B34=0,TRUE,FALSE),IF('Semex Extracts'!B34 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <f>IF(AND(IF('Parsons Extracts'!B34=0,TRUE,FALSE),IF('Semex Extracts'!B34 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f>IF(AND(IF('Parsons Extracts'!B34=1,TRUE,FALSE),IF('Semex Extracts'!B34 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>IF(AND(IF('Parsons Extracts'!B34=1,TRUE,FALSE),IF('Semex Extracts'!B34 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <f>IF(AND(IF('Parsons Extracts'!B35=0,TRUE,FALSE),IF('Semex Extracts'!B35 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <f>IF(AND(IF('Parsons Extracts'!B35=0,TRUE,FALSE),IF('Semex Extracts'!B35 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>IF(AND(IF('Parsons Extracts'!B35=1,TRUE,FALSE),IF('Semex Extracts'!B35 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>IF(AND(IF('Parsons Extracts'!B35=1,TRUE,FALSE),IF('Semex Extracts'!B35 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86">
+        <f>IF(AND(IF('Parsons Extracts'!B36=0,TRUE,FALSE),IF('Semex Extracts'!B36 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>IF(AND(IF('Parsons Extracts'!B36=0,TRUE,FALSE),IF('Semex Extracts'!B36 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f>IF(AND(IF('Parsons Extracts'!B36=1,TRUE,FALSE),IF('Semex Extracts'!B36 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>IF(AND(IF('Parsons Extracts'!B36=1,TRUE,FALSE),IF('Semex Extracts'!B36 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <f>IF(AND(IF('Parsons Extracts'!B37=0,TRUE,FALSE),IF('Semex Extracts'!B37 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>IF(AND(IF('Parsons Extracts'!B37=0,TRUE,FALSE),IF('Semex Extracts'!B37 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f>IF(AND(IF('Parsons Extracts'!B37=1,TRUE,FALSE),IF('Semex Extracts'!B37 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f>IF(AND(IF('Parsons Extracts'!B37=1,TRUE,FALSE),IF('Semex Extracts'!B37 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <f>IF(AND(IF('Parsons Extracts'!B38=0,TRUE,FALSE),IF('Semex Extracts'!B38 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>IF(AND(IF('Parsons Extracts'!B38=0,TRUE,FALSE),IF('Semex Extracts'!B38 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <f>IF(AND(IF('Parsons Extracts'!B38=1,TRUE,FALSE),IF('Semex Extracts'!B38 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f>IF(AND(IF('Parsons Extracts'!B38=1,TRUE,FALSE),IF('Semex Extracts'!B38 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89">
+        <f>IF(AND(IF('Parsons Extracts'!B39=0,TRUE,FALSE),IF('Semex Extracts'!B39 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <f>IF(AND(IF('Parsons Extracts'!B39=0,TRUE,FALSE),IF('Semex Extracts'!B39 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f>IF(AND(IF('Parsons Extracts'!B39=1,TRUE,FALSE),IF('Semex Extracts'!B39 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f>IF(AND(IF('Parsons Extracts'!B39=1,TRUE,FALSE),IF('Semex Extracts'!B39 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90">
+        <f>IF(AND(IF('Parsons Extracts'!B40=0,TRUE,FALSE),IF('Semex Extracts'!B40 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f>IF(AND(IF('Parsons Extracts'!B40=0,TRUE,FALSE),IF('Semex Extracts'!B40 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f>IF(AND(IF('Parsons Extracts'!B40=1,TRUE,FALSE),IF('Semex Extracts'!B40 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>IF(AND(IF('Parsons Extracts'!B40=1,TRUE,FALSE),IF('Semex Extracts'!B40 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91">
+        <f>IF(AND(IF('Parsons Extracts'!B41=0,TRUE,FALSE),IF('Semex Extracts'!B41 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <f>IF(AND(IF('Parsons Extracts'!B41=0,TRUE,FALSE),IF('Semex Extracts'!B41 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f>IF(AND(IF('Parsons Extracts'!B41=1,TRUE,FALSE),IF('Semex Extracts'!B41 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>IF(AND(IF('Parsons Extracts'!B41=1,TRUE,FALSE),IF('Semex Extracts'!B41 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
+        <f>IF(AND(IF('Parsons Extracts'!B42=0,TRUE,FALSE),IF('Semex Extracts'!B42 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <f>IF(AND(IF('Parsons Extracts'!B42=0,TRUE,FALSE),IF('Semex Extracts'!B42 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f>IF(AND(IF('Parsons Extracts'!B42=1,TRUE,FALSE),IF('Semex Extracts'!B42 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f>IF(AND(IF('Parsons Extracts'!B42=1,TRUE,FALSE),IF('Semex Extracts'!B42 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93">
+        <f>IF(AND(IF('Parsons Extracts'!B43=0,TRUE,FALSE),IF('Semex Extracts'!B43 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <f>IF(AND(IF('Parsons Extracts'!B43=0,TRUE,FALSE),IF('Semex Extracts'!B43 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f>IF(AND(IF('Parsons Extracts'!B43=1,TRUE,FALSE),IF('Semex Extracts'!B43 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f>IF(AND(IF('Parsons Extracts'!B43=1,TRUE,FALSE),IF('Semex Extracts'!B43 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94">
+        <f>IF(AND(IF('Parsons Extracts'!B44=0,TRUE,FALSE),IF('Semex Extracts'!B44 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f>IF(AND(IF('Parsons Extracts'!B44=0,TRUE,FALSE),IF('Semex Extracts'!B44 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f>IF(AND(IF('Parsons Extracts'!B44=1,TRUE,FALSE),IF('Semex Extracts'!B44 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f>IF(AND(IF('Parsons Extracts'!B44=1,TRUE,FALSE),IF('Semex Extracts'!B44 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <f>IF(AND(IF('Parsons Extracts'!B45=0,TRUE,FALSE),IF('Semex Extracts'!B45 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <f>IF(AND(IF('Parsons Extracts'!B45=0,TRUE,FALSE),IF('Semex Extracts'!B45 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f>IF(AND(IF('Parsons Extracts'!B45=1,TRUE,FALSE),IF('Semex Extracts'!B45 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f>IF(AND(IF('Parsons Extracts'!B45=1,TRUE,FALSE),IF('Semex Extracts'!B45 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <f>IF(AND(IF('Parsons Extracts'!B46=0,TRUE,FALSE),IF('Semex Extracts'!B46 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f>IF(AND(IF('Parsons Extracts'!B46=0,TRUE,FALSE),IF('Semex Extracts'!B46 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <f>IF(AND(IF('Parsons Extracts'!B46=1,TRUE,FALSE),IF('Semex Extracts'!B46 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f>IF(AND(IF('Parsons Extracts'!B46=1,TRUE,FALSE),IF('Semex Extracts'!B46 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97">
+        <f>IF(AND(IF('Parsons Extracts'!B47=0,TRUE,FALSE),IF('Semex Extracts'!B47 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f>IF(AND(IF('Parsons Extracts'!B47=0,TRUE,FALSE),IF('Semex Extracts'!B47 = 1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <f>IF(AND(IF('Parsons Extracts'!B47=1,TRUE,FALSE),IF('Semex Extracts'!B47 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f>IF(AND(IF('Parsons Extracts'!B47=1,TRUE,FALSE),IF('Semex Extracts'!B47 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98">
+        <f>IF(AND(IF('Parsons Extracts'!B48=0,TRUE,FALSE),IF('Semex Extracts'!B48 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <f>IF(AND(IF('Parsons Extracts'!B48=0,TRUE,FALSE),IF('Semex Extracts'!B48 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f>IF(AND(IF('Parsons Extracts'!B48=1,TRUE,FALSE),IF('Semex Extracts'!B48 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f>IF(AND(IF('Parsons Extracts'!B48=1,TRUE,FALSE),IF('Semex Extracts'!B48 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99">
+        <f>IF(AND(IF('Parsons Extracts'!B49=0,TRUE,FALSE),IF('Semex Extracts'!B49 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <f>IF(AND(IF('Parsons Extracts'!B49=0,TRUE,FALSE),IF('Semex Extracts'!B49 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f>IF(AND(IF('Parsons Extracts'!B49=1,TRUE,FALSE),IF('Semex Extracts'!B49 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f>IF(AND(IF('Parsons Extracts'!B49=1,TRUE,FALSE),IF('Semex Extracts'!B49 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100">
+        <f>IF(AND(IF('Parsons Extracts'!B50=0,TRUE,FALSE),IF('Semex Extracts'!B50 = 0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <f>IF(AND(IF('Parsons Extracts'!B50=0,TRUE,FALSE),IF('Semex Extracts'!B50 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f>IF(AND(IF('Parsons Extracts'!B50=1,TRUE,FALSE),IF('Semex Extracts'!B50 = 0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f>IF(AND(IF('Parsons Extracts'!B50=1,TRUE,FALSE),IF('Semex Extracts'!B50 = 1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101">
+        <f>COUNTIF(B1:B100, 1)</f>
+        <v>53</v>
+      </c>
+      <c r="C101">
+        <f>COUNTIF(C1:C100, 1)</f>
+        <v>36</v>
+      </c>
+      <c r="D101">
+        <f>COUNTIF(D1:D100, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f>COUNTIF(E1:E100, 1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>960</v>
+      </c>
+      <c r="B102" t="s">
+        <v>956</v>
+      </c>
+      <c r="C102" t="s">
+        <v>957</v>
+      </c>
+      <c r="D102" t="s">
+        <v>958</v>
+      </c>
+      <c r="E102" t="s">
+        <v>959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7577,7 +9513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -9430,7 +11366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -10145,42 +12081,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection sqref="A1:P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="30" customWidth="1"/>
     <col min="2" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3" customWidth="1"/>
+    <col min="9" max="16" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
-      <c r="A1" s="28"/>
+    <row r="1" spans="1:16" s="2" customFormat="1">
+      <c r="A1" s="27"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="36" t="s">
         <v>954</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="36" t="s">
         <v>955</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="17.25">
-      <c r="A2" s="29" t="s">
-        <v>994</v>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="17.25">
+      <c r="A2" s="28" t="s">
+        <v>993</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>940</v>
@@ -10192,32 +12135,44 @@
         <v>942</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>1000</v>
-      </c>
       <c r="I2" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="30">
+      <c r="M2" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="25">
@@ -10233,40 +12188,56 @@
         <v>1</v>
       </c>
       <c r="E3" s="25">
+        <f>IF(AND(IF(B3=0,TRUE,FALSE),IF(C3=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <f>IF(AND(IF(B3=0,TRUE,FALSE),IF(C3=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <f>IF(AND(IF(B3=1,TRUE,FALSE),IF(C3=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <f>IF(AND(IF(B3=1,TRUE,FALSE),IF(C3=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="25">
         <f>IF(AND(IF(B3=0,TRUE,FALSE),IF(D3=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="25">
+      <c r="J3" s="25">
         <f>IF(AND(IF(B3=0,TRUE,FALSE),IF(D3=1,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="25">
+      <c r="K3" s="25">
         <f>IF(AND(IF(B3=1,TRUE,FALSE),IF(D3=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="25">
+      <c r="L3" s="25">
         <f>IF(AND(IF(B3=1,TRUE,FALSE),IF(D3=1,TRUE,FALSE)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="25">
+      <c r="M3" s="25">
         <f>IF(AND(IF(C3=0,TRUE,FALSE),IF(D3=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="25">
+      <c r="N3" s="25">
         <f>IF(AND(IF(C3=0,TRUE,FALSE),IF(D3=1,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="25">
+      <c r="O3" s="25">
         <f>IF(AND(IF(C3=1,TRUE,FALSE),IF(D3=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="25">
+      <c r="P3" s="25">
         <f>IF(AND(IF(C3=1,TRUE,FALSE),IF(D3=1,TRUE,FALSE)),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="30">
+    <row r="4" spans="1:16">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
       <c r="B4" s="25">
@@ -10282,40 +12253,56 @@
         <v>1</v>
       </c>
       <c r="E4" s="25">
-        <f t="shared" ref="E4:E67" si="0">IF(AND(IF(B4=0,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="E4:E67" si="0">IF(AND(IF(B4=0,TRUE,FALSE),IF(C4=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="25">
-        <f t="shared" ref="F4:F67" si="1">IF(AND(IF(B4=0,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="F4:F67" si="1">IF(AND(IF(B4=0,TRUE,FALSE),IF(C4=1,TRUE,FALSE)),1,0)</f>
         <v>1</v>
       </c>
       <c r="G4" s="25">
-        <f t="shared" ref="G4:G67" si="2">IF(AND(IF(B4=1,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="G4:G67" si="2">IF(AND(IF(B4=1,TRUE,FALSE),IF(C4=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="25">
-        <f t="shared" ref="H4:H67" si="3">IF(AND(IF(B4=1,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="H4:H67" si="3">IF(AND(IF(B4=1,TRUE,FALSE),IF(C4=1,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="25">
-        <f t="shared" ref="I4:I67" si="4">IF(AND(IF(C4=0,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="I4:I67" si="4">IF(AND(IF(B4=0,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="J4" s="25">
-        <f t="shared" ref="J4:J67" si="5">IF(AND(IF(C4=0,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J4:J67" si="5">IF(AND(IF(B4=0,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
       </c>
       <c r="K4" s="25">
-        <f t="shared" ref="K4:K67" si="6">IF(AND(IF(C4=1,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="K4:K67" si="6">IF(AND(IF(B4=1,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="L4" s="25">
-        <f t="shared" ref="L4:L67" si="7">IF(AND(IF(C4=1,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="30">
+        <f t="shared" ref="L4:L67" si="7">IF(AND(IF(B4=1,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <f t="shared" ref="M4:M67" si="8">IF(AND(IF(C4=0,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <f t="shared" ref="N4:N67" si="9">IF(AND(IF(C4=0,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <f t="shared" ref="O4:O67" si="10">IF(AND(IF(C4=1,TRUE,FALSE),IF(D4=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <f t="shared" ref="P4:P67" si="11">IF(AND(IF(C4=1,TRUE,FALSE),IF(D4=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
       <c r="B5" s="25">
@@ -10362,9 +12349,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="30">
+      <c r="M5" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="25">
@@ -10411,9 +12414,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="30">
+      <c r="M6" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="29">
         <v>5</v>
       </c>
       <c r="B7" s="25">
@@ -10430,11 +12449,11 @@
       </c>
       <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="2"/>
@@ -10460,9 +12479,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="30">
+      <c r="M7" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="29">
         <v>6</v>
       </c>
       <c r="B8" s="25">
@@ -10509,9 +12544,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="30">
+      <c r="M8" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="29">
         <v>7</v>
       </c>
       <c r="B9" s="25">
@@ -10548,7 +12599,7 @@
       </c>
       <c r="J9" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="25">
         <f t="shared" si="6"/>
@@ -10556,11 +12607,27 @@
       </c>
       <c r="L9" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="29">
         <v>8</v>
       </c>
       <c r="B10" s="25">
@@ -10577,11 +12644,11 @@
       </c>
       <c r="E10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="2"/>
@@ -10607,9 +12674,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="30">
+      <c r="M10" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="29">
         <v>9</v>
       </c>
       <c r="B11" s="25">
@@ -10656,9 +12739,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="30">
+      <c r="M11" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="29">
         <v>10</v>
       </c>
       <c r="B12" s="25">
@@ -10675,11 +12774,11 @@
       </c>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="2"/>
@@ -10705,9 +12804,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="30">
+      <c r="M12" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="29">
         <v>11</v>
       </c>
       <c r="B13" s="25">
@@ -10724,11 +12839,11 @@
       </c>
       <c r="E13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="2"/>
@@ -10754,9 +12869,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="30">
+      <c r="M13" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="29">
         <v>12</v>
       </c>
       <c r="B14" s="25">
@@ -10793,7 +12924,7 @@
       </c>
       <c r="J14" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="25">
         <f t="shared" si="6"/>
@@ -10801,11 +12932,27 @@
       </c>
       <c r="L14" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="29">
         <v>13</v>
       </c>
       <c r="B15" s="25">
@@ -10822,11 +12969,11 @@
       </c>
       <c r="E15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="2"/>
@@ -10852,9 +12999,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="30">
+      <c r="M15" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="29">
         <v>14</v>
       </c>
       <c r="B16" s="25">
@@ -10891,7 +13054,7 @@
       </c>
       <c r="J16" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="6"/>
@@ -10899,11 +13062,27 @@
       </c>
       <c r="L16" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="29">
         <v>15</v>
       </c>
       <c r="B17" s="25">
@@ -10920,11 +13099,11 @@
       </c>
       <c r="E17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="2"/>
@@ -10950,9 +13129,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="30">
+      <c r="M17" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="29">
         <v>16</v>
       </c>
       <c r="B18" s="25">
@@ -10969,11 +13164,11 @@
       </c>
       <c r="E18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
@@ -10999,9 +13194,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="30">
+      <c r="M18" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="29">
         <v>17</v>
       </c>
       <c r="B19" s="25">
@@ -11048,9 +13259,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="30">
+      <c r="M19" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="29">
         <v>18</v>
       </c>
       <c r="B20" s="25">
@@ -11097,9 +13324,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="30">
+      <c r="M20" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="29">
         <v>19</v>
       </c>
       <c r="B21" s="25">
@@ -11136,7 +13379,7 @@
       </c>
       <c r="J21" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="25">
         <f t="shared" si="6"/>
@@ -11144,11 +13387,27 @@
       </c>
       <c r="L21" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="30">
+        <v>0</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="29">
         <v>20</v>
       </c>
       <c r="B22" s="25">
@@ -11165,11 +13424,11 @@
       </c>
       <c r="E22" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" si="2"/>
@@ -11195,9 +13454,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="30">
+      <c r="M22" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="29">
         <v>21</v>
       </c>
       <c r="B23" s="25">
@@ -11234,7 +13509,7 @@
       </c>
       <c r="J23" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="25">
         <f t="shared" si="6"/>
@@ -11242,11 +13517,27 @@
       </c>
       <c r="L23" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="30">
+        <v>0</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="29">
         <v>22</v>
       </c>
       <c r="B24" s="25">
@@ -11263,11 +13554,11 @@
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="2"/>
@@ -11293,9 +13584,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="30">
+      <c r="M24" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="29">
         <v>23</v>
       </c>
       <c r="B25" s="25">
@@ -11332,7 +13639,7 @@
       </c>
       <c r="J25" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="25">
         <f t="shared" si="6"/>
@@ -11340,11 +13647,27 @@
       </c>
       <c r="L25" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="29">
         <v>24</v>
       </c>
       <c r="B26" s="25">
@@ -11381,7 +13704,7 @@
       </c>
       <c r="J26" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="25">
         <f t="shared" si="6"/>
@@ -11389,11 +13712,27 @@
       </c>
       <c r="L26" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="29">
         <v>25</v>
       </c>
       <c r="B27" s="25">
@@ -11430,7 +13769,7 @@
       </c>
       <c r="J27" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="25">
         <f t="shared" si="6"/>
@@ -11438,11 +13777,27 @@
       </c>
       <c r="L27" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="30">
+        <v>0</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="29">
         <v>26</v>
       </c>
       <c r="B28" s="25">
@@ -11489,9 +13844,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="30">
+      <c r="M28" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="29">
         <v>27</v>
       </c>
       <c r="B29" s="25">
@@ -11508,11 +13879,11 @@
       </c>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="25">
         <f t="shared" si="2"/>
@@ -11538,9 +13909,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="30">
+      <c r="M29" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="29">
         <v>28</v>
       </c>
       <c r="B30" s="25">
@@ -11557,11 +13944,11 @@
       </c>
       <c r="E30" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="25">
         <f t="shared" si="2"/>
@@ -11587,9 +13974,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="30">
+      <c r="M30" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="29">
         <v>29</v>
       </c>
       <c r="B31" s="25">
@@ -11626,7 +14029,7 @@
       </c>
       <c r="J31" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="25">
         <f t="shared" si="6"/>
@@ -11634,11 +14037,27 @@
       </c>
       <c r="L31" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="30">
+        <v>0</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="29">
         <v>30</v>
       </c>
       <c r="B32" s="25">
@@ -11655,11 +14074,11 @@
       </c>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="2"/>
@@ -11685,9 +14104,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="30">
+      <c r="M32" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="29">
         <v>31</v>
       </c>
       <c r="B33" s="25">
@@ -11704,11 +14139,11 @@
       </c>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="2"/>
@@ -11734,9 +14169,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="30">
+      <c r="M33" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="29">
         <v>32</v>
       </c>
       <c r="B34" s="25">
@@ -11773,7 +14224,7 @@
       </c>
       <c r="J34" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="25">
         <f t="shared" si="6"/>
@@ -11781,11 +14232,27 @@
       </c>
       <c r="L34" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="30">
+        <v>0</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="29">
         <v>33</v>
       </c>
       <c r="B35" s="25">
@@ -11832,9 +14299,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="30">
+      <c r="M35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="29">
         <v>34</v>
       </c>
       <c r="B36" s="25">
@@ -11881,9 +14364,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="30">
+      <c r="M36" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="29">
         <v>35</v>
       </c>
       <c r="B37" s="25">
@@ -11930,9 +14429,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="30">
+      <c r="M37" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="29">
         <v>36</v>
       </c>
       <c r="B38" s="25">
@@ -11949,11 +14464,11 @@
       </c>
       <c r="E38" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="25">
         <f t="shared" si="2"/>
@@ -11979,9 +14494,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="30">
+      <c r="M38" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="29">
         <v>37</v>
       </c>
       <c r="B39" s="25">
@@ -12018,7 +14549,7 @@
       </c>
       <c r="J39" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="25">
         <f t="shared" si="6"/>
@@ -12026,11 +14557,27 @@
       </c>
       <c r="L39" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="30">
+        <v>0</v>
+      </c>
+      <c r="M39" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="29">
         <v>38</v>
       </c>
       <c r="B40" s="25">
@@ -12067,7 +14614,7 @@
       </c>
       <c r="J40" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="25">
         <f t="shared" si="6"/>
@@ -12075,11 +14622,27 @@
       </c>
       <c r="L40" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="30">
+        <v>0</v>
+      </c>
+      <c r="M40" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="29">
         <v>39</v>
       </c>
       <c r="B41" s="25">
@@ -12096,11 +14659,11 @@
       </c>
       <c r="E41" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="25">
         <f t="shared" si="2"/>
@@ -12126,9 +14689,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="30">
+      <c r="M41" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="29">
         <v>40</v>
       </c>
       <c r="B42" s="25">
@@ -12145,11 +14724,11 @@
       </c>
       <c r="E42" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="25">
         <f t="shared" si="2"/>
@@ -12175,9 +14754,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="30">
+      <c r="M42" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="29">
         <v>41</v>
       </c>
       <c r="B43" s="25">
@@ -12214,7 +14809,7 @@
       </c>
       <c r="J43" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="25">
         <f t="shared" si="6"/>
@@ -12222,11 +14817,27 @@
       </c>
       <c r="L43" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="30">
+        <v>0</v>
+      </c>
+      <c r="M43" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="29">
         <v>42</v>
       </c>
       <c r="B44" s="25">
@@ -12273,9 +14884,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="30">
+      <c r="M44" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="29">
         <v>43</v>
       </c>
       <c r="B45" s="25">
@@ -12292,11 +14919,11 @@
       </c>
       <c r="E45" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="25">
         <f t="shared" si="2"/>
@@ -12322,9 +14949,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="30">
+      <c r="M45" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="29">
         <v>44</v>
       </c>
       <c r="B46" s="25">
@@ -12361,7 +15004,7 @@
       </c>
       <c r="J46" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="25">
         <f t="shared" si="6"/>
@@ -12369,11 +15012,27 @@
       </c>
       <c r="L46" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="30">
+        <v>0</v>
+      </c>
+      <c r="M46" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="29">
         <v>45</v>
       </c>
       <c r="B47" s="25">
@@ -12420,9 +15079,25 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="30">
+      <c r="M47" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="29">
         <v>46</v>
       </c>
       <c r="B48" s="25">
@@ -12439,11 +15114,11 @@
       </c>
       <c r="E48" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="25">
         <f t="shared" si="2"/>
@@ -12469,9 +15144,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="30">
+      <c r="M48" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="29">
         <v>47</v>
       </c>
       <c r="B49" s="25">
@@ -12508,7 +15199,7 @@
       </c>
       <c r="J49" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="25">
         <f t="shared" si="6"/>
@@ -12516,11 +15207,27 @@
       </c>
       <c r="L49" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="30">
+        <v>0</v>
+      </c>
+      <c r="M49" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="29">
         <v>48</v>
       </c>
       <c r="B50" s="25">
@@ -12557,7 +15264,7 @@
       </c>
       <c r="J50" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="25">
         <f t="shared" si="6"/>
@@ -12565,11 +15272,27 @@
       </c>
       <c r="L50" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="30">
+        <v>0</v>
+      </c>
+      <c r="M50" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="29">
         <v>49</v>
       </c>
       <c r="B51" s="25">
@@ -12586,11 +15309,11 @@
       </c>
       <c r="E51" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="25">
         <f t="shared" si="2"/>
@@ -12616,9 +15339,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="30">
+      <c r="M51" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="29">
         <v>50</v>
       </c>
       <c r="B52" s="25">
@@ -12655,7 +15394,7 @@
       </c>
       <c r="J52" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="25">
         <f t="shared" si="6"/>
@@ -12663,11 +15402,27 @@
       </c>
       <c r="L52" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="30">
+        <v>0</v>
+      </c>
+      <c r="M52" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="29">
         <v>51</v>
       </c>
       <c r="B53" s="25">
@@ -12714,9 +15469,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="30">
+      <c r="M53" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N53" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="29">
         <v>52</v>
       </c>
       <c r="B54" s="25">
@@ -12753,7 +15524,7 @@
       </c>
       <c r="J54" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="25">
         <f t="shared" si="6"/>
@@ -12761,11 +15532,27 @@
       </c>
       <c r="L54" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="30">
+        <v>0</v>
+      </c>
+      <c r="M54" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="29">
         <v>53</v>
       </c>
       <c r="B55" s="25">
@@ -12802,7 +15589,7 @@
       </c>
       <c r="J55" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="25">
         <f t="shared" si="6"/>
@@ -12810,11 +15597,27 @@
       </c>
       <c r="L55" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="30">
+        <v>0</v>
+      </c>
+      <c r="M55" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="29">
         <v>54</v>
       </c>
       <c r="B56" s="25">
@@ -12861,9 +15664,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="30">
+      <c r="M56" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="29">
         <v>55</v>
       </c>
       <c r="B57" s="25">
@@ -12880,11 +15699,11 @@
       </c>
       <c r="E57" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="25">
         <f t="shared" si="2"/>
@@ -12910,9 +15729,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="30">
+      <c r="M57" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="29">
         <v>56</v>
       </c>
       <c r="B58" s="25">
@@ -12929,11 +15764,11 @@
       </c>
       <c r="E58" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="25">
         <f t="shared" si="2"/>
@@ -12959,9 +15794,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="30">
+      <c r="M58" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="29">
         <v>57</v>
       </c>
       <c r="B59" s="25">
@@ -13008,9 +15859,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="30">
+      <c r="M59" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N59" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="29">
         <v>58</v>
       </c>
       <c r="B60" s="25">
@@ -13027,11 +15894,11 @@
       </c>
       <c r="E60" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="25">
         <f t="shared" si="2"/>
@@ -13057,9 +15924,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="30">
+      <c r="M60" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="29">
         <v>59</v>
       </c>
       <c r="B61" s="25">
@@ -13076,11 +15959,11 @@
       </c>
       <c r="E61" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="25">
         <f t="shared" si="2"/>
@@ -13106,9 +15989,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="30">
+      <c r="M61" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="29">
         <v>60</v>
       </c>
       <c r="B62" s="25">
@@ -13125,11 +16024,11 @@
       </c>
       <c r="E62" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="25">
         <f t="shared" si="2"/>
@@ -13155,9 +16054,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="30">
+      <c r="M62" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O62" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="29">
         <v>61</v>
       </c>
       <c r="B63" s="25">
@@ -13174,11 +16089,11 @@
       </c>
       <c r="E63" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="25">
         <f t="shared" si="2"/>
@@ -13204,9 +16119,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="30">
+      <c r="M63" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="29">
         <v>62</v>
       </c>
       <c r="B64" s="25">
@@ -13243,7 +16174,7 @@
       </c>
       <c r="J64" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="25">
         <f t="shared" si="6"/>
@@ -13251,11 +16182,27 @@
       </c>
       <c r="L64" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="30">
+        <v>0</v>
+      </c>
+      <c r="M64" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="29">
         <v>63</v>
       </c>
       <c r="B65" s="25">
@@ -13272,11 +16219,11 @@
       </c>
       <c r="E65" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="25">
         <f t="shared" si="2"/>
@@ -13302,9 +16249,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="30">
+      <c r="M65" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="29">
         <v>64</v>
       </c>
       <c r="B66" s="25">
@@ -13321,11 +16284,11 @@
       </c>
       <c r="E66" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="25">
         <f t="shared" si="2"/>
@@ -13351,9 +16314,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="30">
+      <c r="M66" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O66" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="29">
         <v>65</v>
       </c>
       <c r="B67" s="25">
@@ -13370,11 +16349,11 @@
       </c>
       <c r="E67" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="25">
         <f t="shared" si="2"/>
@@ -13400,9 +16379,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="30">
+      <c r="M67" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="29">
         <v>66</v>
       </c>
       <c r="B68" s="25">
@@ -13418,40 +16413,56 @@
         <v>1</v>
       </c>
       <c r="E68" s="25">
-        <f t="shared" ref="E68:E102" si="8">IF(AND(IF(B68=0,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="E68:E103" si="12">IF(AND(IF(B68=0,TRUE,FALSE),IF(C68=0,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
       </c>
       <c r="F68" s="25">
-        <f t="shared" ref="F68:F102" si="9">IF(AND(IF(B68=0,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="F68:F103" si="13">IF(AND(IF(B68=0,TRUE,FALSE),IF(C68=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
       </c>
       <c r="G68" s="25">
-        <f t="shared" ref="G68:G102" si="10">IF(AND(IF(B68=1,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="G68:G103" si="14">IF(AND(IF(B68=1,TRUE,FALSE),IF(C68=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="25">
-        <f t="shared" ref="H68:H102" si="11">IF(AND(IF(B68=1,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="H68:H103" si="15">IF(AND(IF(B68=1,TRUE,FALSE),IF(C68=1,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="25">
-        <f t="shared" ref="I68:I102" si="12">IF(AND(IF(C68=0,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="I68:I102" si="16">IF(AND(IF(B68=0,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="J68" s="25">
-        <f t="shared" ref="J68:J102" si="13">IF(AND(IF(C68=0,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="J68:J102" si="17">IF(AND(IF(B68=0,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
         <v>1</v>
       </c>
       <c r="K68" s="25">
-        <f t="shared" ref="K68:K102" si="14">IF(AND(IF(C68=1,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
+        <f t="shared" ref="K68:K102" si="18">IF(AND(IF(B68=1,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
         <v>0</v>
       </c>
       <c r="L68" s="25">
-        <f t="shared" ref="L68:L102" si="15">IF(AND(IF(C68=1,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="30">
+        <f t="shared" ref="L68:L102" si="19">IF(AND(IF(B68=1,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="25">
+        <f t="shared" ref="M68:M102" si="20">IF(AND(IF(C68=0,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="25">
+        <f t="shared" ref="N68:N102" si="21">IF(AND(IF(C68=0,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O68" s="25">
+        <f t="shared" ref="O68:O102" si="22">IF(AND(IF(C68=1,TRUE,FALSE),IF(D68=0,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="25">
+        <f t="shared" ref="P68:P102" si="23">IF(AND(IF(C68=1,TRUE,FALSE),IF(D68=1,TRUE,FALSE)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="29">
         <v>67</v>
       </c>
       <c r="B69" s="25">
@@ -13467,40 +16478,56 @@
         <v>1</v>
       </c>
       <c r="E69" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F69" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G69" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H69" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I69" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J69" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K69" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L69" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="29">
         <v>68</v>
       </c>
       <c r="B70" s="25">
@@ -13516,40 +16543,56 @@
         <v>1</v>
       </c>
       <c r="E70" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F70" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G70" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H70" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I70" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J70" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K70" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L70" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="29">
         <v>69</v>
       </c>
       <c r="B71" s="25">
@@ -13565,40 +16608,56 @@
         <v>1</v>
       </c>
       <c r="E71" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G71" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H71" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I71" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J71" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K71" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L71" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="29">
         <v>70</v>
       </c>
       <c r="B72" s="25">
@@ -13614,40 +16673,56 @@
         <v>1</v>
       </c>
       <c r="E72" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G72" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H72" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I72" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J72" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K72" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L72" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="29">
         <v>71</v>
       </c>
       <c r="B73" s="25">
@@ -13663,40 +16738,56 @@
         <v>1</v>
       </c>
       <c r="E73" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F73" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G73" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H73" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I73" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J73" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K73" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L73" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="29">
         <v>72</v>
       </c>
       <c r="B74" s="25">
@@ -13712,40 +16803,56 @@
         <v>1</v>
       </c>
       <c r="E74" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F74" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G74" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H74" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I74" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J74" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K74" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L74" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="29">
         <v>73</v>
       </c>
       <c r="B75" s="25">
@@ -13761,40 +16868,56 @@
         <v>1</v>
       </c>
       <c r="E75" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F75" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G75" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H75" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I75" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J75" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K75" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L75" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="29">
         <v>74</v>
       </c>
       <c r="B76" s="25">
@@ -13810,40 +16933,56 @@
         <v>1</v>
       </c>
       <c r="E76" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G76" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H76" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I76" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J76" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K76" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L76" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="29">
         <v>75</v>
       </c>
       <c r="B77" s="25">
@@ -13859,40 +16998,56 @@
         <v>1</v>
       </c>
       <c r="E77" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F77" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G77" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H77" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I77" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J77" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K77" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L77" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="29">
         <v>76</v>
       </c>
       <c r="B78" s="25">
@@ -13908,40 +17063,56 @@
         <v>1</v>
       </c>
       <c r="E78" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F78" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G78" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H78" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I78" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J78" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K78" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O78" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="29">
         <v>77</v>
       </c>
       <c r="B79" s="25">
@@ -13957,40 +17128,56 @@
         <v>1</v>
       </c>
       <c r="E79" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F79" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G79" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H79" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I79" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J79" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K79" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L79" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="29">
         <v>78</v>
       </c>
       <c r="B80" s="25">
@@ -14006,40 +17193,56 @@
         <v>1</v>
       </c>
       <c r="E80" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F80" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G80" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H80" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I80" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J80" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K80" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L80" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O80" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="29">
         <v>79</v>
       </c>
       <c r="B81" s="25">
@@ -14055,40 +17258,56 @@
         <v>1</v>
       </c>
       <c r="E81" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F81" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G81" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H81" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I81" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J81" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K81" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L81" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="29">
         <v>80</v>
       </c>
       <c r="B82" s="25">
@@ -14104,40 +17323,56 @@
         <v>1</v>
       </c>
       <c r="E82" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F82" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G82" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H82" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I82" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J82" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K82" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L82" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="29">
         <v>81</v>
       </c>
       <c r="B83" s="25">
@@ -14153,40 +17388,56 @@
         <v>1</v>
       </c>
       <c r="E83" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G83" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H83" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I83" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J83" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K83" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L83" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O83" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="29">
         <v>82</v>
       </c>
       <c r="B84" s="25">
@@ -14202,40 +17453,56 @@
         <v>1</v>
       </c>
       <c r="E84" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F84" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G84" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H84" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I84" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J84" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K84" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L84" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O84" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="29">
         <v>83</v>
       </c>
       <c r="B85" s="25">
@@ -14251,40 +17518,56 @@
         <v>1</v>
       </c>
       <c r="E85" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F85" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G85" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H85" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I85" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J85" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K85" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L85" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="29">
         <v>84</v>
       </c>
       <c r="B86" s="25">
@@ -14300,40 +17583,56 @@
         <v>1</v>
       </c>
       <c r="E86" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F86" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G86" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H86" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I86" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J86" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K86" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L86" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O86" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="29">
         <v>85</v>
       </c>
       <c r="B87" s="25">
@@ -14349,40 +17648,56 @@
         <v>0</v>
       </c>
       <c r="E87" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F87" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G87" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H87" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I87" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J87" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K87" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L87" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="25">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N87" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="29">
         <v>86</v>
       </c>
       <c r="B88" s="25">
@@ -14398,40 +17713,56 @@
         <v>1</v>
       </c>
       <c r="E88" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F88" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G88" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H88" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I88" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J88" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K88" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L88" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="29">
         <v>87</v>
       </c>
       <c r="B89" s="25">
@@ -14447,40 +17778,56 @@
         <v>1</v>
       </c>
       <c r="E89" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F89" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G89" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H89" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I89" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J89" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K89" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L89" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="29">
         <v>88</v>
       </c>
       <c r="B90" s="25">
@@ -14496,40 +17843,56 @@
         <v>1</v>
       </c>
       <c r="E90" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F90" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G90" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H90" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I90" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J90" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K90" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L90" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="29">
         <v>89</v>
       </c>
       <c r="B91" s="25">
@@ -14545,40 +17908,56 @@
         <v>1</v>
       </c>
       <c r="E91" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F91" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G91" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H91" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I91" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J91" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K91" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L91" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O91" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="29">
         <v>90</v>
       </c>
       <c r="B92" s="25">
@@ -14594,40 +17973,56 @@
         <v>1</v>
       </c>
       <c r="E92" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F92" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G92" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H92" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I92" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J92" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K92" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L92" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O92" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="29">
         <v>91</v>
       </c>
       <c r="B93" s="25">
@@ -14643,40 +18038,56 @@
         <v>1</v>
       </c>
       <c r="E93" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F93" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G93" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H93" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I93" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J93" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K93" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L93" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O93" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="29">
         <v>92</v>
       </c>
       <c r="B94" s="25">
@@ -14692,40 +18103,56 @@
         <v>1</v>
       </c>
       <c r="E94" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F94" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G94" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H94" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I94" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J94" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K94" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L94" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O94" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="29">
         <v>93</v>
       </c>
       <c r="B95" s="25">
@@ -14741,40 +18168,56 @@
         <v>1</v>
       </c>
       <c r="E95" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F95" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G95" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H95" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I95" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J95" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L95" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O95" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="29">
         <v>94</v>
       </c>
       <c r="B96" s="25">
@@ -14790,40 +18233,56 @@
         <v>1</v>
       </c>
       <c r="E96" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F96" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G96" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H96" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I96" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J96" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K96" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L96" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="30">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M96" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="29">
         <v>95</v>
       </c>
       <c r="B97" s="25">
@@ -14839,40 +18298,56 @@
         <v>1</v>
       </c>
       <c r="E97" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F97" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G97" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H97" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I97" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J97" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K97" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L97" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O97" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="29">
         <v>96</v>
       </c>
       <c r="B98" s="25">
@@ -14888,40 +18363,56 @@
         <v>1</v>
       </c>
       <c r="E98" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F98" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G98" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H98" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I98" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J98" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K98" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L98" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="29">
         <v>97</v>
       </c>
       <c r="B99" s="25">
@@ -14937,40 +18428,56 @@
         <v>1</v>
       </c>
       <c r="E99" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F99" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G99" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H99" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I99" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J99" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K99" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L99" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="29">
         <v>98</v>
       </c>
       <c r="B100" s="25">
@@ -14986,40 +18493,56 @@
         <v>1</v>
       </c>
       <c r="E100" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F100" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G100" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H100" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I100" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J100" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K100" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L100" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="29">
         <v>99</v>
       </c>
       <c r="B101" s="25">
@@ -15035,40 +18558,56 @@
         <v>1</v>
       </c>
       <c r="E101" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F101" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G101" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H101" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I101" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J101" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K101" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L101" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O101" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="29">
         <v>100</v>
       </c>
       <c r="B102" s="25">
@@ -15084,41 +18623,57 @@
         <v>1</v>
       </c>
       <c r="E102" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F102" s="25">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G102" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H102" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I102" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J102" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K102" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L102" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="29" t="s">
-        <v>995</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O102" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="28" t="s">
+        <v>994</v>
       </c>
       <c r="B103" s="25">
         <f>COUNTIF(B3:B102, 1)</f>
@@ -15132,42 +18687,58 @@
         <f>COUNTIF(D3:D102, 1)</f>
         <v>93</v>
       </c>
-      <c r="E103" s="25">
-        <f t="shared" ref="E103:H103" si="16">COUNTIF(E3:E102, 1)</f>
+      <c r="E103" s="39">
+        <f t="shared" ref="E103:H103" si="24">COUNTIF(E3:E102, 1)</f>
+        <v>53</v>
+      </c>
+      <c r="F103" s="39">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="G103" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="39">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="I103" s="39">
+        <f t="shared" ref="I103:L103" si="25">COUNTIF(I3:I102, 1)</f>
         <v>7</v>
       </c>
-      <c r="F103" s="25">
-        <f t="shared" si="16"/>
+      <c r="J103" s="25">
+        <f t="shared" si="25"/>
         <v>82</v>
       </c>
-      <c r="G103" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="25">
-        <f t="shared" si="16"/>
+      <c r="K103" s="25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="25">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="I103" s="25">
-        <f t="shared" ref="I103" si="17">COUNTIF(I3:I102, 1)</f>
+      <c r="M103" s="25">
+        <f t="shared" ref="M103" si="26">COUNTIF(M3:M102, 1)</f>
         <v>7</v>
       </c>
-      <c r="J103" s="25">
-        <f t="shared" ref="J103" si="18">COUNTIF(J3:J102, 1)</f>
+      <c r="N103" s="25">
+        <f t="shared" ref="N103" si="27">COUNTIF(N3:N102, 1)</f>
         <v>46</v>
       </c>
-      <c r="K103" s="25">
-        <f t="shared" ref="K103" si="19">COUNTIF(K3:K102, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="25">
-        <f t="shared" ref="L103" si="20">COUNTIF(L3:L102, 1)</f>
+      <c r="O103" s="25">
+        <f t="shared" ref="O103" si="28">COUNTIF(O3:O102, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P103" s="25">
+        <f t="shared" ref="P103" si="29">COUNTIF(P3:P102, 1)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="29" t="s">
-        <v>996</v>
+    <row r="104" spans="1:16">
+      <c r="A104" s="28" t="s">
+        <v>995</v>
       </c>
       <c r="B104" s="25">
         <f>COUNTIF(B3:B102, 0)</f>
@@ -15182,29 +18753,33 @@
         <v>7</v>
       </c>
       <c r="E104" s="26"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -15215,18 +18790,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -17775,11 +21350,11 @@
         <v>1582</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D104" si="7">FACT(B68)</f>
+        <f t="shared" ref="D68:D103" si="7">FACT(B68)</f>
         <v>9.3326215443944175E+157</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E104" si="8">FACT(A68) * FACT(B68-A68)</f>
+        <f t="shared" ref="E68:E103" si="8">FACT(A68) * FACT(B68-A68)</f>
         <v>8.5224193943040468E+130</v>
       </c>
       <c r="F68">
@@ -17787,7 +21362,7 @@
         <v>1.0950671531879631E+27</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G104" si="10" xml:space="preserve"> 1/C68</f>
+        <f t="shared" ref="G68:G103" si="10" xml:space="preserve"> 1/C68</f>
         <v>6.3211125158027818E-4</v>
       </c>
       <c r="H68">
@@ -17795,7 +21370,7 @@
         <v>1.1261049162781108E-208</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I104" si="12">POWER(1-G68, B68-A68)</f>
+        <f t="shared" ref="I68:I103" si="12">POWER(1-G68, B68-A68)</f>
         <v>0.97811220241278407</v>
       </c>
       <c r="J68">
@@ -19182,6 +22757,201 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="32">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="32">
+        <f>256 *A2</f>
+        <v>512</v>
+      </c>
+      <c r="B3" s="32">
+        <f>256 *B2</f>
+        <v>768</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="32">
+        <v>25</v>
+      </c>
+      <c r="B4" s="32">
+        <v>44</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="31">
+        <f>A4/A3</f>
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="B5" s="31">
+        <f>B4/B3</f>
+        <v>5.7291666666666664E-2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="32">
+        <v>40</v>
+      </c>
+      <c r="B6" s="32">
+        <v>61</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="31">
+        <f>A6/A3</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="B7" s="31">
+        <f>B6/B3</f>
+        <v>7.9427083333333329E-2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="32">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="31">
+        <f>A8/A3</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="B9" s="31">
+        <f>B8/B3</f>
+        <v>6.510416666666667E-3</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="32">
+        <v>52</v>
+      </c>
+      <c r="B10" s="32">
+        <v>75</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="31">
+        <f>A10/A3</f>
+        <v>0.1015625</v>
+      </c>
+      <c r="B11" s="31">
+        <f>B10/B3</f>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="32">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="31">
+        <f>A12/A3</f>
+        <v>5.2734375E-2</v>
+      </c>
+      <c r="B13" s="31">
+        <f>B12/B3</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="32">
+        <f>A10-A12</f>
+        <v>25</v>
+      </c>
+      <c r="B14" s="32">
+        <f>B10-B12</f>
+        <v>75</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="31">
+        <f>A14/A3</f>
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="B15" s="31">
+        <f>B14/B3</f>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21596,7 +25366,7 @@
         <v>101</v>
       </c>
       <c r="E154" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F154" t="s">
         <v>35</v>
@@ -21607,7 +25377,7 @@
         <v>102</v>
       </c>
       <c r="E155" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F155" t="s">
         <v>35</v>
@@ -21618,7 +25388,7 @@
         <v>103</v>
       </c>
       <c r="E156" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F156" t="s">
         <v>62</v>
@@ -21629,7 +25399,7 @@
         <v>104</v>
       </c>
       <c r="E157" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F157" t="s">
         <v>23</v>
@@ -21640,7 +25410,7 @@
         <v>105</v>
       </c>
       <c r="E158" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F158" t="s">
         <v>50</v>
@@ -21651,7 +25421,7 @@
         <v>106</v>
       </c>
       <c r="E159" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F159" t="s">
         <v>50</v>
@@ -21662,7 +25432,7 @@
         <v>107</v>
       </c>
       <c r="E160" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F160" t="s">
         <v>50</v>
@@ -21673,7 +25443,7 @@
         <v>108</v>
       </c>
       <c r="E161" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
@@ -21684,7 +25454,7 @@
         <v>109</v>
       </c>
       <c r="E162" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F162" t="s">
         <v>1</v>
@@ -21695,7 +25465,7 @@
         <v>110</v>
       </c>
       <c r="E163" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F163" t="s">
         <v>1</v>
@@ -21706,7 +25476,7 @@
         <v>111</v>
       </c>
       <c r="E164" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F164" t="s">
         <v>1</v>
@@ -21717,7 +25487,7 @@
         <v>112</v>
       </c>
       <c r="E165" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F165" t="s">
         <v>1</v>
@@ -21728,7 +25498,7 @@
         <v>113</v>
       </c>
       <c r="E166" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F166" t="s">
         <v>1</v>
@@ -21739,7 +25509,7 @@
         <v>114</v>
       </c>
       <c r="E167" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F167" t="s">
         <v>1</v>
@@ -21750,7 +25520,7 @@
         <v>115</v>
       </c>
       <c r="E168" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F168" t="s">
         <v>1</v>
@@ -21761,7 +25531,7 @@
         <v>116</v>
       </c>
       <c r="E169" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F169" t="s">
         <v>1</v>
@@ -21772,7 +25542,7 @@
         <v>117</v>
       </c>
       <c r="E170" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F170" t="s">
         <v>1</v>
@@ -21783,7 +25553,7 @@
         <v>118</v>
       </c>
       <c r="E171" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F171" t="s">
         <v>1</v>
@@ -21794,7 +25564,7 @@
         <v>119</v>
       </c>
       <c r="E172" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F172" t="s">
         <v>1</v>
@@ -21805,7 +25575,7 @@
         <v>120</v>
       </c>
       <c r="E173" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F173" t="s">
         <v>1</v>
@@ -21816,7 +25586,7 @@
         <v>121</v>
       </c>
       <c r="E174" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F174" t="s">
         <v>1</v>
@@ -21827,7 +25597,7 @@
         <v>122</v>
       </c>
       <c r="E175" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F175" t="s">
         <v>1</v>
@@ -21838,7 +25608,7 @@
         <v>123</v>
       </c>
       <c r="E176" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F176" t="s">
         <v>1</v>
@@ -21849,7 +25619,7 @@
         <v>124</v>
       </c>
       <c r="E177" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F177" t="s">
         <v>30</v>
@@ -21860,7 +25630,7 @@
         <v>125</v>
       </c>
       <c r="E178" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -21871,7 +25641,7 @@
         <v>126</v>
       </c>
       <c r="E179" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -21882,7 +25652,7 @@
         <v>127</v>
       </c>
       <c r="E180" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -21893,7 +25663,7 @@
         <v>128</v>
       </c>
       <c r="E181" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
@@ -21904,7 +25674,7 @@
         <v>129</v>
       </c>
       <c r="E182" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
@@ -21915,7 +25685,7 @@
         <v>130</v>
       </c>
       <c r="E183" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F183" t="s">
         <v>13</v>
